--- a/data/2026-01-27/leaderboard.xlsx
+++ b/data/2026-01-27/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>rank</t>
   </si>
@@ -58,181 +58,196 @@
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>sjraut3108@gmail.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
     <t>sanzay.16@gmail.com</t>
   </si>
   <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>sjraut3108@gmail.com</t>
-  </si>
-  <si>
-    <t>sunil.ynvd@gmail.com</t>
+    <t>goutamraju.dandu@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live.com</t>
   </si>
   <si>
     <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live (1).com</t>
+  </si>
+  <si>
     <t>vdpchittala@gmail.com</t>
   </si>
   <si>
-    <t>manish.indoriya@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
+    <t>jeevanandam@gmail.com</t>
+  </si>
+  <si>
+    <t>m.marycatherine@outlook.com</t>
+  </si>
+  <si>
+    <t>r.shishir812@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
+  </si>
+  <si>
+    <t>aakritisaraogi0709@gmail.com</t>
+  </si>
+  <si>
+    <t>ajay.g415@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>madhuriyoshi@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
   </si>
   <si>
     <t>sonal.agrawal9947@gmail.com</t>
   </si>
   <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live (1).com</t>
-  </si>
-  <si>
-    <t>goutamraju.dandu@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
+    <t>siddharthiibr@gmail.com</t>
+  </si>
+  <si>
+    <t>rajumbaligar123@gmail.com</t>
   </si>
   <si>
     <t>krisbhappy@icloud.com</t>
   </si>
   <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
-    <t>jeevanandam@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>m.marycatherine@outlook.com</t>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>issaczerubbabel@gmail.com</t>
+  </si>
+  <si>
+    <t>stellaniko@hotmail.com</t>
+  </si>
+  <si>
+    <t>kranthi16t@gmail.com</t>
   </si>
   <si>
     <t>sarath</t>
   </si>
   <si>
-    <t>kalyan9999@live.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
+    <t>vikasraj4982@gmail.com</t>
+  </si>
+  <si>
+    <t>dheeraj.018@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>pshashank80@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail (1).com</t>
+  </si>
+  <si>
+    <t>bussraj@gmail.com</t>
+  </si>
+  <si>
+    <t>sonalip.mca@gmail.com</t>
+  </si>
+  <si>
+    <t>lindankemtaji@gmail.com</t>
+  </si>
+  <si>
+    <t>tarunbc29@gmail.com</t>
+  </si>
+  <si>
+    <t>geetasen.geet@gmail.com</t>
+  </si>
+  <si>
+    <t>johnbosco72@gmail.com</t>
+  </si>
+  <si>
+    <t>zdijaz@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>swethagorantla17@gmail.com</t>
+  </si>
+  <si>
+    <t>gvsubbaiah2007@gmail.com</t>
+  </si>
+  <si>
+    <t>revathipadma25@gmail.com</t>
+  </si>
+  <si>
+    <t>mj.crazzy@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshreddy.mv@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>basavaiahjavatech@gmail.com</t>
+  </si>
+  <si>
+    <t>bhaskarangovindan@gmail.com</t>
+  </si>
+  <si>
+    <t>srisrihithab@gmail.com</t>
+  </si>
+  <si>
+    <t>abhishek.tutika@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>geetha.madhuri123@gmail.com</t>
+  </si>
+  <si>
+    <t>bala.osho@gmail.com</t>
   </si>
   <si>
     <t>kumaran47@gmail.com</t>
   </si>
   <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
-  </si>
-  <si>
-    <t>r.shishir812@gmail.com</t>
-  </si>
-  <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>tarunbc29@gmail.com</t>
-  </si>
-  <si>
-    <t>test.jpg</t>
-  </si>
-  <si>
-    <t>aakritisaraogi0709@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>madhuriyoshi@gmail.com</t>
-  </si>
-  <si>
-    <t>ajay.g415@gmail.com</t>
-  </si>
-  <si>
-    <t>siddharthiibr@gmail.com</t>
-  </si>
-  <si>
-    <t>rajumbaligar123@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>stellaniko@hotmail.com</t>
-  </si>
-  <si>
-    <t>kranthi16t@gmail.com</t>
-  </si>
-  <si>
-    <t>issaczerubbabel@gmail.com</t>
-  </si>
-  <si>
-    <t>revathipadma25@gmail.com</t>
-  </si>
-  <si>
-    <t>geetha.madhuri123@gmail.com</t>
-  </si>
-  <si>
-    <t>vikasraj4982@gmail.com</t>
-  </si>
-  <si>
-    <t>dheeraj.018@gmail.com</t>
-  </si>
-  <si>
-    <t>rajeshkalwakuntla@gmail (1).com</t>
-  </si>
-  <si>
-    <t>bussraj@gmail.com</t>
-  </si>
-  <si>
-    <t>pshashank80@gmail.com</t>
-  </si>
-  <si>
-    <t>lindankemtaji@gmail.com</t>
-  </si>
-  <si>
-    <t>sonalip.mca@gmail.com</t>
-  </si>
-  <si>
-    <t>zdijaz@gmail.com</t>
-  </si>
-  <si>
-    <t>geetasen.geet@gmail.com</t>
-  </si>
-  <si>
-    <t>johnbosco72@gmail.com</t>
-  </si>
-  <si>
-    <t>swethagorantla17@gmail.com</t>
-  </si>
-  <si>
-    <t>gvsubbaiah2007@gmail.com</t>
-  </si>
-  <si>
-    <t>basavaiahjavatech@gmail.com</t>
-  </si>
-  <si>
-    <t>bhaskarangovindan@gmail.com</t>
-  </si>
-  <si>
-    <t>mj.crazzy@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshreddy.mv@gmail.com</t>
-  </si>
-  <si>
-    <t>srisrihithab@gmail.com</t>
-  </si>
-  <si>
-    <t>abhishek.tutika@gmail.com</t>
-  </si>
-  <si>
-    <t>bala.osho@gmail.com</t>
+    <t>swetha.mitta22@gmail.com</t>
+  </si>
+  <si>
+    <t>rajkumar.msis@gmail.com</t>
+  </si>
+  <si>
+    <t>srikanth.panangipalli@gmail.com</t>
+  </si>
+  <si>
+    <t>surekha.javadeveloper89@gmail.com</t>
+  </si>
+  <si>
+    <t>deepanshu.jdr@gmail.com</t>
+  </si>
+  <si>
+    <t>asrmca@gmail.com</t>
   </si>
   <si>
     <t>rajeshkalwakuntla@gmail.com</t>
@@ -241,24 +256,6 @@
     <t>krajshekar535@gmail.com</t>
   </si>
   <si>
-    <t>srikanth.panangipalli@gmail.com</t>
-  </si>
-  <si>
-    <t>surekha.javadeveloper89@gmail.com</t>
-  </si>
-  <si>
-    <t>rajkumar.msis@gmail.com</t>
-  </si>
-  <si>
-    <t>swetha.mitta22@gmail.com</t>
-  </si>
-  <si>
-    <t>deepanshu.jdr@gmail.com</t>
-  </si>
-  <si>
-    <t>asrmca@gmail.com</t>
-  </si>
-  <si>
     <t>sudhakarnooka@gmail.com</t>
   </si>
   <si>
@@ -289,13 +286,10 @@
     <t>cardio, sport, strength_training</t>
   </si>
   <si>
+    <t>strength_training</t>
+  </si>
+  <si>
     <t>cardio, strength_training, yoga</t>
-  </si>
-  <si>
-    <t>sport, strength_training</t>
-  </si>
-  <si>
-    <t>strength_training</t>
   </si>
   <si>
     <t>yoga</t>
@@ -656,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,22 +690,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>68649</v>
+        <v>44738</v>
       </c>
       <c r="D2">
-        <v>559</v>
+        <v>378</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>563</v>
+        <v>283</v>
       </c>
       <c r="G2">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -722,22 +716,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>60194</v>
+        <v>40105</v>
       </c>
       <c r="D3">
-        <v>3551</v>
+        <v>2398</v>
       </c>
       <c r="E3">
-        <v>48.11</v>
+        <v>32.09</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G3">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -748,22 +742,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>63327</v>
+        <v>42537</v>
       </c>
       <c r="D4">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E4">
-        <v>29.86</v>
+        <v>24.23</v>
       </c>
       <c r="F4">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G4">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -774,22 +768,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>32019</v>
+        <v>22133</v>
       </c>
       <c r="D5">
-        <v>3094</v>
+        <v>2449</v>
       </c>
       <c r="E5">
-        <v>55.572</v>
+        <v>34.646</v>
       </c>
       <c r="F5">
-        <v>930</v>
+        <v>249</v>
       </c>
       <c r="G5">
-        <v>2110</v>
+        <v>1430</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -800,22 +794,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>52315</v>
+        <v>26159</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102.49</v>
+        <v>72.02</v>
       </c>
       <c r="F6">
-        <v>3078.4</v>
+        <v>2902</v>
       </c>
       <c r="G6">
-        <v>2025</v>
+        <v>1425</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -826,22 +820,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>52820</v>
+        <v>36432</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>31.87</v>
+        <v>20.52</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="G7">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -852,22 +846,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>13398</v>
+        <v>25025</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E8">
-        <v>12.42</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="F8">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>1930</v>
+        <v>1335</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -878,22 +872,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>30032</v>
+        <v>31385</v>
       </c>
       <c r="D9">
-        <v>672</v>
+        <v>970</v>
       </c>
       <c r="E9">
-        <v>26.95</v>
+        <v>29.09</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>495</v>
       </c>
       <c r="G9">
-        <v>1870</v>
+        <v>1200</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -904,22 +898,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>27239</v>
+        <v>31885</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>4800</v>
       </c>
       <c r="E10">
-        <v>13.4</v>
+        <v>34.67</v>
       </c>
       <c r="F10">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="G10">
-        <v>1810</v>
+        <v>1200</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -930,19 +924,19 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>47614</v>
+        <v>18840</v>
       </c>
       <c r="D11">
-        <v>7185</v>
+        <v>133</v>
       </c>
       <c r="E11">
-        <v>51.40000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="F11">
-        <v>626</v>
+        <v>168</v>
       </c>
       <c r="G11">
-        <v>1800</v>
+        <v>1130</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
@@ -956,22 +950,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>20491</v>
       </c>
       <c r="D12">
-        <v>2498</v>
+        <v>878</v>
       </c>
       <c r="E12">
-        <v>23.92</v>
+        <v>23.43</v>
       </c>
       <c r="F12">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="G12">
-        <v>1750</v>
+        <v>1125</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -982,22 +976,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>107117</v>
+        <v>11313</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7.32</v>
       </c>
       <c r="F13">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="G13">
-        <v>1700</v>
+        <v>1105</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1008,22 +1002,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>39761</v>
+        <v>13594</v>
       </c>
       <c r="D14">
-        <v>1383</v>
+        <v>4304</v>
       </c>
       <c r="E14">
-        <v>36.13</v>
+        <v>7.5</v>
       </c>
       <c r="F14">
-        <v>587</v>
+        <v>256</v>
       </c>
       <c r="G14">
-        <v>1580</v>
+        <v>1050</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1034,22 +1028,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>20885</v>
+        <v>32627</v>
       </c>
       <c r="D15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>39.7</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G15">
-        <v>1450</v>
+        <v>1035</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1060,22 +1054,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>40515</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>3475</v>
+        <v>1611</v>
       </c>
       <c r="E16">
-        <v>54.37</v>
+        <v>16.36</v>
       </c>
       <c r="F16">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="G16">
-        <v>1360</v>
+        <v>1025</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1089,16 +1083,16 @@
         <v>8103</v>
       </c>
       <c r="D17">
-        <v>769</v>
+        <v>562</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G17">
-        <v>1280</v>
+        <v>980</v>
       </c>
       <c r="H17" t="s">
         <v>91</v>
@@ -1124,10 +1118,10 @@
         <v>214</v>
       </c>
       <c r="G18">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1138,22 +1132,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>13594</v>
+        <v>24937</v>
       </c>
       <c r="D19">
-        <v>4304</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="G19">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1164,22 +1158,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>11053</v>
+        <v>20987</v>
       </c>
       <c r="D20">
-        <v>686</v>
+        <v>1279</v>
       </c>
       <c r="E20">
-        <v>10.64</v>
+        <v>304.27</v>
       </c>
       <c r="F20">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G20">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1190,22 +1184,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>19209</v>
       </c>
       <c r="D21">
-        <v>360</v>
+        <v>1128</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="F21">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="G21">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1216,19 +1210,19 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>11976</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2637</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="G22">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="H22" t="s">
         <v>87</v>
@@ -1242,19 +1236,19 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>20987</v>
+        <v>11053</v>
       </c>
       <c r="D23">
-        <v>1569</v>
+        <v>459</v>
       </c>
       <c r="E23">
-        <v>19.81</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="F23">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="G23">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="H23" t="s">
         <v>86</v>
@@ -1268,22 +1262,22 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>16137</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="E24">
-        <v>1729.74</v>
+        <v>16.2</v>
       </c>
       <c r="F24">
-        <v>384</v>
+        <v>34</v>
       </c>
       <c r="G24">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1294,22 +1288,22 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>19209</v>
+        <v>17095</v>
       </c>
       <c r="D25">
-        <v>1128</v>
+        <v>576</v>
       </c>
       <c r="E25">
-        <v>15.52</v>
+        <v>21.15</v>
       </c>
       <c r="F25">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="G25">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1320,22 +1314,22 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>11864</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G26">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1346,19 +1340,22 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>39701</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F27">
-        <v>632</v>
+        <v>77</v>
       </c>
       <c r="G27">
-        <v>870</v>
+        <v>600</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1369,22 +1366,22 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>7157</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>353.88</v>
+        <v>884.74</v>
       </c>
       <c r="F28">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28">
-        <v>785</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1398,19 +1395,19 @@
         <v>20000</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>2380</v>
       </c>
       <c r="E29">
-        <v>3.6</v>
+        <v>36.84999999999999</v>
       </c>
       <c r="F29">
-        <v>3.6</v>
+        <v>68</v>
       </c>
       <c r="G29">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1421,19 +1418,22 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>30756</v>
+        <v>10701</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2495</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="G30">
-        <v>750</v>
+        <v>550</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1444,22 +1444,22 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>11976</v>
+        <v>13734</v>
       </c>
       <c r="D31">
-        <v>2637</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="G31">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1470,19 +1470,22 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>33564</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G32">
-        <v>680</v>
+        <v>500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1493,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>9858</v>
+        <v>20684</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1502,13 +1505,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>650</v>
-      </c>
-      <c r="H33" t="s">
-        <v>87</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1519,19 +1519,22 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>22005</v>
+        <v>7104</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>176.94</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G34">
-        <v>625</v>
+        <v>460</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1542,22 +1545,22 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>10018</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>17.46</v>
+        <v>1.38</v>
       </c>
       <c r="F35">
-        <v>198</v>
+        <v>507</v>
       </c>
       <c r="G35">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1568,22 +1571,22 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>16137</v>
+        <v>12015</v>
       </c>
       <c r="D36">
-        <v>766</v>
+        <v>554</v>
       </c>
       <c r="E36">
-        <v>16.2</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="G36">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1594,22 +1597,22 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>12628</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>29.8</v>
+        <v>9.34</v>
       </c>
       <c r="F37">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1620,22 +1623,22 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5932</v>
       </c>
       <c r="D38">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.26</v>
+        <v>1.36</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>600</v>
+        <v>435</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1646,22 +1649,22 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>17095</v>
+        <v>5866</v>
       </c>
       <c r="D39">
-        <v>576</v>
+        <v>2352</v>
       </c>
       <c r="E39">
-        <v>21.15</v>
+        <v>4.07</v>
       </c>
       <c r="F39">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="G39">
-        <v>600</v>
+        <v>435</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1672,22 +1675,22 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>10701</v>
+        <v>6131</v>
       </c>
       <c r="D40">
-        <v>2495</v>
+        <v>304</v>
       </c>
       <c r="E40">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>954</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>550</v>
+        <v>435</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1698,22 +1701,19 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>13734</v>
+        <v>21465</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>550</v>
-      </c>
-      <c r="H41" t="s">
-        <v>93</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1724,19 +1724,22 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>21664</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G42">
-        <v>500</v>
+        <v>400</v>
+      </c>
+      <c r="H42" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1747,22 +1750,22 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>12015</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>554</v>
+        <v>457</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="G43">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1773,22 +1776,22 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>12628</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G44">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1799,22 +1802,22 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>10018</v>
+        <v>8554</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="E45">
-        <v>1.38</v>
+        <v>9.309999999999999</v>
       </c>
       <c r="F45">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="G45">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1825,19 +1828,22 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>21755</v>
+        <v>8201</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4.86</v>
+        <v>2.86</v>
       </c>
       <c r="F46">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="G46">
-        <v>450</v>
+        <v>380</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,22 +1854,19 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>10994</v>
+        <v>11984</v>
       </c>
       <c r="D47">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>450</v>
-      </c>
-      <c r="H47" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,22 +1877,22 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>5866</v>
+        <v>5204</v>
       </c>
       <c r="D48">
-        <v>2103</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="G48">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1900,22 +1903,22 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>6131</v>
+        <v>7708</v>
       </c>
       <c r="D49">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F49">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1926,22 +1929,22 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>5064</v>
       </c>
       <c r="D50">
-        <v>457</v>
+        <v>335</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="F50">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1952,7 +1955,7 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>4929</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1961,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G51">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="H51" t="s">
         <v>86</v>
@@ -1978,22 +1981,22 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="D52">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G52">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,22 +2007,22 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>8201</v>
+        <v>4925</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E53">
-        <v>2.74</v>
+        <v>9.4</v>
       </c>
       <c r="F53">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G53">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,22 +2033,19 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>8554</v>
+        <v>15022</v>
       </c>
       <c r="D54">
-        <v>1697</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>9.309999999999999</v>
+        <v>4.86</v>
       </c>
       <c r="F54">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="G54">
-        <v>380</v>
-      </c>
-      <c r="H54" t="s">
-        <v>94</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,22 +2056,22 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>5064</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="F55">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G55">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>5204</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G56">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2108,22 +2108,22 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>7708</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.28</v>
+        <v>14.9</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="G57">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,22 +2134,22 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>7.94</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G58">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,22 +2160,22 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>4925</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G59">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2189,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="E60">
-        <v>7.94</v>
+        <v>0.27</v>
       </c>
       <c r="F60">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G60">
         <v>300</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2212,22 +2212,19 @@
         <v>67</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>10409</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>300</v>
-      </c>
-      <c r="H61" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2238,22 +2235,19 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>10832</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>300</v>
-      </c>
-      <c r="H62" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2264,22 +2258,19 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>10994</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G63">
-        <v>300</v>
-      </c>
-      <c r="H63" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,22 +2281,19 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>10850</v>
       </c>
       <c r="D64">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>300</v>
-      </c>
-      <c r="H64" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2316,19 +2304,19 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <v>10409</v>
+        <v>10000</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G65">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2339,7 +2327,7 @@
         <v>72</v>
       </c>
       <c r="C66">
-        <v>10850</v>
+        <v>5079</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2351,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>250</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2362,19 +2350,19 @@
         <v>73</v>
       </c>
       <c r="C67">
-        <v>13286</v>
+        <v>7447</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2385,7 +2373,7 @@
         <v>74</v>
       </c>
       <c r="C68">
-        <v>13196</v>
+        <v>7367</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2397,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>250</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2408,16 +2396,16 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>7367</v>
+        <v>7577</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>10.17</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G69">
         <v>135</v>
@@ -2431,19 +2419,19 @@
         <v>76</v>
       </c>
       <c r="C70">
-        <v>7577</v>
+        <v>1823</v>
       </c>
       <c r="D70">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>10.17</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2454,19 +2442,19 @@
         <v>77</v>
       </c>
       <c r="C71">
-        <v>7447</v>
+        <v>4189</v>
       </c>
       <c r="D71">
-        <v>1751</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2477,7 +2465,7 @@
         <v>78</v>
       </c>
       <c r="C72">
-        <v>5079</v>
+        <v>4000</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2489,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2500,7 +2488,7 @@
         <v>79</v>
       </c>
       <c r="C73">
-        <v>1823</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2523,7 +2511,7 @@
         <v>80</v>
       </c>
       <c r="C74">
-        <v>4189</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2546,7 +2534,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2558,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2578,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -2595,38 +2583,15 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>2626</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>2626</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>360</v>
-      </c>
-      <c r="G78">
         <v>100</v>
       </c>
     </row>
